--- a/Messungen/Messung 28112023.xlsx
+++ b/Messungen/Messung 28112023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sht\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB71D46-CA75-4A34-A294-ADF9906037DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6F4291-E4DA-4D5C-99BF-4B4CBE25D249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Auswertung" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1">'Auswertung ohne_mit PV alt'!$B$1:$C$92</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3">'Daten für Auswertungen'!$C$1:$D$126</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -127,10 +127,10 @@
     <numFmt numFmtId="165" formatCode="dd/mm/\ hh:mm:ss"/>
     <numFmt numFmtId="166" formatCode="0\ %"/>
     <numFmt numFmtId="167" formatCode="0.00\ %"/>
-    <numFmt numFmtId="169" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="170" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="0.0\ %"/>
+    <numFmt numFmtId="168" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="169" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="0.0\ %"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -240,13 +240,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -256,15 +256,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="172" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="171" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1"/>
@@ -2612,7 +2612,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DBAA12A-61CB-4700-A95B-9B7619742C1B}">
   <dimension ref="A1:S90"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:F77"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4599,7 +4601,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5171,13 +5175,8 @@
       <c r="I19" s="6">
         <v>6.3243243243243194E-2</v>
       </c>
-      <c r="K19" s="22">
-        <v>-44</v>
-      </c>
-      <c r="L19" s="24">
-        <f>-0.0197*K19+0.1278</f>
-        <v>0.99459999999999993</v>
-      </c>
+      <c r="K19" s="22"/>
+      <c r="L19" s="24"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
@@ -5206,13 +5205,7 @@
       <c r="I20" s="6">
         <v>6.4162754303599398E-2</v>
       </c>
-      <c r="K20">
-        <v>-46</v>
-      </c>
-      <c r="L20" s="24">
-        <f>-0.0187*K20+0.1268</f>
-        <v>0.9870000000000001</v>
-      </c>
+      <c r="L20" s="24"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
@@ -9802,7 +9795,7 @@
         <v>45258.84547453704</v>
       </c>
       <c r="F2">
-        <f>IF(C2&gt;150,1,0)</f>
+        <f t="shared" ref="F2:F33" si="0">IF(C2&gt;150,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -9817,15 +9810,15 @@
         <v>150</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D66" si="0">A3</f>
+        <f t="shared" ref="D3:D66" si="1">A3</f>
         <v>2374</v>
       </c>
       <c r="E3" s="4">
-        <f t="shared" ref="E3:E66" si="1">$H$1+D3/3600/24</f>
+        <f t="shared" ref="E3:E66" si="2">$H$1+D3/3600/24</f>
         <v>45258.846921296295</v>
       </c>
       <c r="F3">
-        <f>IF(C3&gt;150,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -9840,15 +9833,15 @@
         <v>151</v>
       </c>
       <c r="D4">
+        <f t="shared" si="1"/>
+        <v>4606</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" si="2"/>
+        <v>45258.872754629629</v>
+      </c>
+      <c r="F4">
         <f t="shared" si="0"/>
-        <v>4606</v>
-      </c>
-      <c r="E4" s="4">
-        <f t="shared" si="1"/>
-        <v>45258.872754629629</v>
-      </c>
-      <c r="F4">
-        <f>IF(C4&gt;150,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -9863,15 +9856,15 @@
         <v>148</v>
       </c>
       <c r="D5">
+        <f t="shared" si="1"/>
+        <v>4736</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="2"/>
+        <v>45258.874259259261</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="0"/>
-        <v>4736</v>
-      </c>
-      <c r="E5" s="4">
-        <f t="shared" si="1"/>
-        <v>45258.874259259261</v>
-      </c>
-      <c r="F5">
-        <f>IF(C5&gt;150,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -9886,15 +9879,15 @@
         <v>151</v>
       </c>
       <c r="D6">
+        <f t="shared" si="1"/>
+        <v>6432</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="2"/>
+        <v>45258.893888888888</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="0"/>
-        <v>6432</v>
-      </c>
-      <c r="E6" s="4">
-        <f t="shared" si="1"/>
-        <v>45258.893888888888</v>
-      </c>
-      <c r="F6">
-        <f>IF(C6&gt;150,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -9909,15 +9902,15 @@
         <v>149</v>
       </c>
       <c r="D7">
+        <f t="shared" si="1"/>
+        <v>6561</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="2"/>
+        <v>45258.895381944443</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="0"/>
-        <v>6561</v>
-      </c>
-      <c r="E7" s="4">
-        <f t="shared" si="1"/>
-        <v>45258.895381944443</v>
-      </c>
-      <c r="F7">
-        <f>IF(C7&gt;150,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -9932,15 +9925,15 @@
         <v>152</v>
       </c>
       <c r="D8">
+        <f t="shared" si="1"/>
+        <v>8061</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="2"/>
+        <v>45258.91274305556</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="0"/>
-        <v>8061</v>
-      </c>
-      <c r="E8" s="4">
-        <f t="shared" si="1"/>
-        <v>45258.91274305556</v>
-      </c>
-      <c r="F8">
-        <f>IF(C8&gt;150,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -9955,15 +9948,15 @@
         <v>147</v>
       </c>
       <c r="D9">
+        <f t="shared" si="1"/>
+        <v>8191</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="2"/>
+        <v>45258.914247685185</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="0"/>
-        <v>8191</v>
-      </c>
-      <c r="E9" s="4">
-        <f t="shared" si="1"/>
-        <v>45258.914247685185</v>
-      </c>
-      <c r="F9">
-        <f>IF(C9&gt;150,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -9978,15 +9971,15 @@
         <v>151</v>
       </c>
       <c r="D10">
+        <f t="shared" si="1"/>
+        <v>9474</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="2"/>
+        <v>45258.929097222222</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="0"/>
-        <v>9474</v>
-      </c>
-      <c r="E10" s="4">
-        <f t="shared" si="1"/>
-        <v>45258.929097222222</v>
-      </c>
-      <c r="F10">
-        <f>IF(C10&gt;150,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -10001,15 +9994,15 @@
         <v>150</v>
       </c>
       <c r="D11">
+        <f t="shared" si="1"/>
+        <v>9601</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="2"/>
+        <v>45258.930567129632</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="0"/>
-        <v>9601</v>
-      </c>
-      <c r="E11" s="4">
-        <f t="shared" si="1"/>
-        <v>45258.930567129632</v>
-      </c>
-      <c r="F11">
-        <f>IF(C11&gt;150,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -10024,15 +10017,15 @@
         <v>151</v>
       </c>
       <c r="D12">
+        <f t="shared" si="1"/>
+        <v>10927</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="2"/>
+        <v>45258.945914351854</v>
+      </c>
+      <c r="F12">
         <f t="shared" si="0"/>
-        <v>10927</v>
-      </c>
-      <c r="E12" s="4">
-        <f t="shared" si="1"/>
-        <v>45258.945914351854</v>
-      </c>
-      <c r="F12">
-        <f>IF(C12&gt;150,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -10047,15 +10040,15 @@
         <v>150</v>
       </c>
       <c r="D13">
+        <f t="shared" si="1"/>
+        <v>11052</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="2"/>
+        <v>45258.94736111111</v>
+      </c>
+      <c r="F13">
         <f t="shared" si="0"/>
-        <v>11052</v>
-      </c>
-      <c r="E13" s="4">
-        <f t="shared" si="1"/>
-        <v>45258.94736111111</v>
-      </c>
-      <c r="F13">
-        <f>IF(C13&gt;150,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -10070,15 +10063,15 @@
         <v>151</v>
       </c>
       <c r="D14">
+        <f t="shared" si="1"/>
+        <v>12206</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="2"/>
+        <v>45258.960717592592</v>
+      </c>
+      <c r="F14">
         <f t="shared" si="0"/>
-        <v>12206</v>
-      </c>
-      <c r="E14" s="4">
-        <f t="shared" si="1"/>
-        <v>45258.960717592592</v>
-      </c>
-      <c r="F14">
-        <f>IF(C14&gt;150,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -10093,15 +10086,15 @@
         <v>147</v>
       </c>
       <c r="D15">
+        <f t="shared" si="1"/>
+        <v>12328</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="2"/>
+        <v>45258.962129629632</v>
+      </c>
+      <c r="F15">
         <f t="shared" si="0"/>
-        <v>12328</v>
-      </c>
-      <c r="E15" s="4">
-        <f t="shared" si="1"/>
-        <v>45258.962129629632</v>
-      </c>
-      <c r="F15">
-        <f>IF(C15&gt;150,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -10116,15 +10109,15 @@
         <v>152</v>
       </c>
       <c r="D16">
+        <f t="shared" si="1"/>
+        <v>13474</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="2"/>
+        <v>45258.975393518522</v>
+      </c>
+      <c r="F16">
         <f t="shared" si="0"/>
-        <v>13474</v>
-      </c>
-      <c r="E16" s="4">
-        <f t="shared" si="1"/>
-        <v>45258.975393518522</v>
-      </c>
-      <c r="F16">
-        <f>IF(C16&gt;150,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -10139,15 +10132,15 @@
         <v>149</v>
       </c>
       <c r="D17">
+        <f t="shared" si="1"/>
+        <v>13598</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="2"/>
+        <v>45258.976828703708</v>
+      </c>
+      <c r="F17">
         <f t="shared" si="0"/>
-        <v>13598</v>
-      </c>
-      <c r="E17" s="4">
-        <f t="shared" si="1"/>
-        <v>45258.976828703708</v>
-      </c>
-      <c r="F17">
-        <f>IF(C17&gt;150,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -10162,15 +10155,15 @@
         <v>151</v>
       </c>
       <c r="D18">
+        <f t="shared" si="1"/>
+        <v>14802</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="2"/>
+        <v>45258.990763888891</v>
+      </c>
+      <c r="F18">
         <f t="shared" si="0"/>
-        <v>14802</v>
-      </c>
-      <c r="E18" s="4">
-        <f t="shared" si="1"/>
-        <v>45258.990763888891</v>
-      </c>
-      <c r="F18">
-        <f>IF(C18&gt;150,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -10185,15 +10178,15 @@
         <v>149</v>
       </c>
       <c r="D19">
+        <f t="shared" si="1"/>
+        <v>14932</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="2"/>
+        <v>45258.992268518523</v>
+      </c>
+      <c r="F19">
         <f t="shared" si="0"/>
-        <v>14932</v>
-      </c>
-      <c r="E19" s="4">
-        <f t="shared" si="1"/>
-        <v>45258.992268518523</v>
-      </c>
-      <c r="F19">
-        <f>IF(C19&gt;150,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -10208,15 +10201,15 @@
         <v>151</v>
       </c>
       <c r="D20">
+        <f t="shared" si="1"/>
+        <v>16026</v>
+      </c>
+      <c r="E20" s="4">
+        <f t="shared" si="2"/>
+        <v>45259.004930555559</v>
+      </c>
+      <c r="F20">
         <f t="shared" si="0"/>
-        <v>16026</v>
-      </c>
-      <c r="E20" s="4">
-        <f t="shared" si="1"/>
-        <v>45259.004930555559</v>
-      </c>
-      <c r="F20">
-        <f>IF(C20&gt;150,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -10231,15 +10224,15 @@
         <v>150</v>
       </c>
       <c r="D21">
+        <f t="shared" si="1"/>
+        <v>16143</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" si="2"/>
+        <v>45259.006284722222</v>
+      </c>
+      <c r="F21">
         <f t="shared" si="0"/>
-        <v>16143</v>
-      </c>
-      <c r="E21" s="4">
-        <f t="shared" si="1"/>
-        <v>45259.006284722222</v>
-      </c>
-      <c r="F21">
-        <f>IF(C21&gt;150,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -10254,15 +10247,15 @@
         <v>152</v>
       </c>
       <c r="D22">
+        <f t="shared" si="1"/>
+        <v>17155</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" si="2"/>
+        <v>45259.017997685187</v>
+      </c>
+      <c r="F22">
         <f t="shared" si="0"/>
-        <v>17155</v>
-      </c>
-      <c r="E22" s="4">
-        <f t="shared" si="1"/>
-        <v>45259.017997685187</v>
-      </c>
-      <c r="F22">
-        <f>IF(C22&gt;150,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -10277,15 +10270,15 @@
         <v>150</v>
       </c>
       <c r="D23">
+        <f t="shared" si="1"/>
+        <v>17276</v>
+      </c>
+      <c r="E23" s="4">
+        <f t="shared" si="2"/>
+        <v>45259.01939814815</v>
+      </c>
+      <c r="F23">
         <f t="shared" si="0"/>
-        <v>17276</v>
-      </c>
-      <c r="E23" s="4">
-        <f t="shared" si="1"/>
-        <v>45259.01939814815</v>
-      </c>
-      <c r="F23">
-        <f>IF(C23&gt;150,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -10300,15 +10293,15 @@
         <v>151</v>
       </c>
       <c r="D24">
+        <f t="shared" si="1"/>
+        <v>18358</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" si="2"/>
+        <v>45259.0319212963</v>
+      </c>
+      <c r="F24">
         <f t="shared" si="0"/>
-        <v>18358</v>
-      </c>
-      <c r="E24" s="4">
-        <f t="shared" si="1"/>
-        <v>45259.0319212963</v>
-      </c>
-      <c r="F24">
-        <f>IF(C24&gt;150,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -10323,15 +10316,15 @@
         <v>150</v>
       </c>
       <c r="D25">
+        <f t="shared" si="1"/>
+        <v>18486</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="2"/>
+        <v>45259.033402777779</v>
+      </c>
+      <c r="F25">
         <f t="shared" si="0"/>
-        <v>18486</v>
-      </c>
-      <c r="E25" s="4">
-        <f t="shared" si="1"/>
-        <v>45259.033402777779</v>
-      </c>
-      <c r="F25">
-        <f>IF(C25&gt;150,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -10346,15 +10339,15 @@
         <v>152</v>
       </c>
       <c r="D26">
+        <f t="shared" si="1"/>
+        <v>19539</v>
+      </c>
+      <c r="E26" s="4">
+        <f t="shared" si="2"/>
+        <v>45259.045590277776</v>
+      </c>
+      <c r="F26">
         <f t="shared" si="0"/>
-        <v>19539</v>
-      </c>
-      <c r="E26" s="4">
-        <f t="shared" si="1"/>
-        <v>45259.045590277776</v>
-      </c>
-      <c r="F26">
-        <f>IF(C26&gt;150,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -10369,15 +10362,15 @@
         <v>149</v>
       </c>
       <c r="D27">
+        <f t="shared" si="1"/>
+        <v>19664</v>
+      </c>
+      <c r="E27" s="4">
+        <f t="shared" si="2"/>
+        <v>45259.047037037039</v>
+      </c>
+      <c r="F27">
         <f t="shared" si="0"/>
-        <v>19664</v>
-      </c>
-      <c r="E27" s="4">
-        <f t="shared" si="1"/>
-        <v>45259.047037037039</v>
-      </c>
-      <c r="F27">
-        <f>IF(C27&gt;150,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -10392,15 +10385,15 @@
         <v>151</v>
       </c>
       <c r="D28">
+        <f t="shared" si="1"/>
+        <v>20690</v>
+      </c>
+      <c r="E28" s="4">
+        <f t="shared" si="2"/>
+        <v>45259.058912037035</v>
+      </c>
+      <c r="F28">
         <f t="shared" si="0"/>
-        <v>20690</v>
-      </c>
-      <c r="E28" s="4">
-        <f t="shared" si="1"/>
-        <v>45259.058912037035</v>
-      </c>
-      <c r="F28">
-        <f>IF(C28&gt;150,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -10415,15 +10408,15 @@
         <v>149</v>
       </c>
       <c r="D29">
+        <f t="shared" si="1"/>
+        <v>20819</v>
+      </c>
+      <c r="E29" s="4">
+        <f t="shared" si="2"/>
+        <v>45259.06040509259</v>
+      </c>
+      <c r="F29">
         <f t="shared" si="0"/>
-        <v>20819</v>
-      </c>
-      <c r="E29" s="4">
-        <f t="shared" si="1"/>
-        <v>45259.06040509259</v>
-      </c>
-      <c r="F29">
-        <f>IF(C29&gt;150,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -10438,15 +10431,15 @@
         <v>152</v>
       </c>
       <c r="D30">
+        <f t="shared" si="1"/>
+        <v>21867</v>
+      </c>
+      <c r="E30" s="4">
+        <f t="shared" si="2"/>
+        <v>45259.072534722225</v>
+      </c>
+      <c r="F30">
         <f t="shared" si="0"/>
-        <v>21867</v>
-      </c>
-      <c r="E30" s="4">
-        <f t="shared" si="1"/>
-        <v>45259.072534722225</v>
-      </c>
-      <c r="F30">
-        <f>IF(C30&gt;150,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -10461,15 +10454,15 @@
         <v>148</v>
       </c>
       <c r="D31">
+        <f t="shared" si="1"/>
+        <v>21992</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="2"/>
+        <v>45259.073981481481</v>
+      </c>
+      <c r="F31">
         <f t="shared" si="0"/>
-        <v>21992</v>
-      </c>
-      <c r="E31" s="4">
-        <f t="shared" si="1"/>
-        <v>45259.073981481481</v>
-      </c>
-      <c r="F31">
-        <f>IF(C31&gt;150,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -10484,15 +10477,15 @@
         <v>152</v>
       </c>
       <c r="D32">
+        <f t="shared" si="1"/>
+        <v>22971</v>
+      </c>
+      <c r="E32" s="4">
+        <f t="shared" si="2"/>
+        <v>45259.085312499999</v>
+      </c>
+      <c r="F32">
         <f t="shared" si="0"/>
-        <v>22971</v>
-      </c>
-      <c r="E32" s="4">
-        <f t="shared" si="1"/>
-        <v>45259.085312499999</v>
-      </c>
-      <c r="F32">
-        <f>IF(C32&gt;150,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -10507,15 +10500,15 @@
         <v>149</v>
       </c>
       <c r="D33">
+        <f t="shared" si="1"/>
+        <v>23096</v>
+      </c>
+      <c r="E33" s="4">
+        <f t="shared" si="2"/>
+        <v>45259.086759259262</v>
+      </c>
+      <c r="F33">
         <f t="shared" si="0"/>
-        <v>23096</v>
-      </c>
-      <c r="E33" s="4">
-        <f t="shared" si="1"/>
-        <v>45259.086759259262</v>
-      </c>
-      <c r="F33">
-        <f>IF(C33&gt;150,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -10530,15 +10523,15 @@
         <v>153</v>
       </c>
       <c r="D34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24061</v>
       </c>
       <c r="E34" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45259.097928240742</v>
       </c>
       <c r="F34">
-        <f>IF(C34&gt;150,1,0)</f>
+        <f t="shared" ref="F34:F65" si="3">IF(C34&gt;150,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -10553,15 +10546,15 @@
         <v>150</v>
       </c>
       <c r="D35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24185</v>
       </c>
       <c r="E35" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45259.099363425928</v>
       </c>
       <c r="F35">
-        <f>IF(C35&gt;150,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -10576,15 +10569,15 @@
         <v>152</v>
       </c>
       <c r="D36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25101</v>
       </c>
       <c r="E36" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45259.109965277778</v>
       </c>
       <c r="F36">
-        <f>IF(C36&gt;150,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -10599,15 +10592,15 @@
         <v>149</v>
       </c>
       <c r="D37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25227</v>
       </c>
       <c r="E37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45259.11142361111</v>
       </c>
       <c r="F37">
-        <f>IF(C37&gt;150,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -10622,15 +10615,15 @@
         <v>152</v>
       </c>
       <c r="D38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26150</v>
       </c>
       <c r="E38" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45259.122106481482</v>
       </c>
       <c r="F38">
-        <f>IF(C38&gt;150,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -10645,15 +10638,15 @@
         <v>148</v>
       </c>
       <c r="D39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26275</v>
       </c>
       <c r="E39" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45259.123553240745</v>
       </c>
       <c r="F39">
-        <f>IF(C39&gt;150,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -10668,15 +10661,15 @@
         <v>152</v>
       </c>
       <c r="D40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27172</v>
       </c>
       <c r="E40" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45259.133935185186</v>
       </c>
       <c r="F40">
-        <f>IF(C40&gt;150,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -10691,15 +10684,15 @@
         <v>150</v>
       </c>
       <c r="D41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27301</v>
       </c>
       <c r="E41" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45259.135428240741</v>
       </c>
       <c r="F41">
-        <f>IF(C41&gt;150,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -10714,15 +10707,15 @@
         <v>151</v>
       </c>
       <c r="D42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28173</v>
       </c>
       <c r="E42" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45259.145520833335</v>
       </c>
       <c r="F42">
-        <f>IF(C42&gt;150,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -10737,15 +10730,15 @@
         <v>149</v>
       </c>
       <c r="D43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28301</v>
       </c>
       <c r="E43" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45259.147002314814</v>
       </c>
       <c r="F43">
-        <f>IF(C43&gt;150,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -10760,15 +10753,15 @@
         <v>151</v>
       </c>
       <c r="D44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29155</v>
       </c>
       <c r="E44" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45259.156886574077</v>
       </c>
       <c r="F44">
-        <f>IF(C44&gt;150,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -10783,15 +10776,15 @@
         <v>150</v>
       </c>
       <c r="D45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29279</v>
       </c>
       <c r="E45" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45259.158321759263</v>
       </c>
       <c r="F45">
-        <f>IF(C45&gt;150,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -10806,15 +10799,15 @@
         <v>152</v>
       </c>
       <c r="D46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30110</v>
       </c>
       <c r="E46" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45259.167939814819</v>
       </c>
       <c r="F46">
-        <f>IF(C46&gt;150,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -10829,15 +10822,15 @@
         <v>149</v>
       </c>
       <c r="D47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30236</v>
       </c>
       <c r="E47" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45259.169398148151</v>
       </c>
       <c r="F47">
-        <f>IF(C47&gt;150,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -10852,15 +10845,15 @@
         <v>151</v>
       </c>
       <c r="D48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31062</v>
       </c>
       <c r="E48" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45259.178958333338</v>
       </c>
       <c r="F48">
-        <f>IF(C48&gt;150,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -10875,15 +10868,15 @@
         <v>148</v>
       </c>
       <c r="D49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31197</v>
       </c>
       <c r="E49" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45259.180520833332</v>
       </c>
       <c r="F49">
-        <f>IF(C49&gt;150,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -10898,15 +10891,15 @@
         <v>152</v>
       </c>
       <c r="D50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32011</v>
       </c>
       <c r="E50" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45259.189942129633</v>
       </c>
       <c r="F50">
-        <f>IF(C50&gt;150,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -10921,15 +10914,15 @@
         <v>149</v>
       </c>
       <c r="D51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32138</v>
       </c>
       <c r="E51" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45259.191412037035</v>
       </c>
       <c r="F51">
-        <f>IF(C51&gt;150,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -10944,15 +10937,15 @@
         <v>151</v>
       </c>
       <c r="D52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32958</v>
       </c>
       <c r="E52" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45259.200902777782</v>
       </c>
       <c r="F52">
-        <f>IF(C52&gt;150,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -10967,15 +10960,15 @@
         <v>149</v>
       </c>
       <c r="D53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33087</v>
       </c>
       <c r="E53" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45259.202395833338</v>
       </c>
       <c r="F53">
-        <f>IF(C53&gt;150,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -10990,15 +10983,15 @@
         <v>152</v>
       </c>
       <c r="D54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33927</v>
       </c>
       <c r="E54" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45259.212118055555</v>
       </c>
       <c r="F54">
-        <f>IF(C54&gt;150,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -11013,15 +11006,15 @@
         <v>149</v>
       </c>
       <c r="D55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34055</v>
       </c>
       <c r="E55" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45259.213599537041</v>
       </c>
       <c r="F55">
-        <f>IF(C55&gt;150,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11036,15 +11029,15 @@
         <v>152</v>
       </c>
       <c r="D56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34889</v>
       </c>
       <c r="E56" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45259.223252314812</v>
       </c>
       <c r="F56">
-        <f>IF(C56&gt;150,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -11059,15 +11052,15 @@
         <v>150</v>
       </c>
       <c r="D57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35019</v>
       </c>
       <c r="E57" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45259.224756944444</v>
       </c>
       <c r="F57">
-        <f>IF(C57&gt;150,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11082,15 +11075,15 @@
         <v>152</v>
       </c>
       <c r="D58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35847</v>
       </c>
       <c r="E58" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45259.234340277777</v>
       </c>
       <c r="F58">
-        <f>IF(C58&gt;150,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -11105,15 +11098,15 @@
         <v>150</v>
       </c>
       <c r="D59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35974</v>
       </c>
       <c r="E59" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45259.235810185186</v>
       </c>
       <c r="F59">
-        <f>IF(C59&gt;150,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11128,15 +11121,15 @@
         <v>152</v>
       </c>
       <c r="D60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36793</v>
       </c>
       <c r="E60" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45259.245289351849</v>
       </c>
       <c r="F60">
-        <f>IF(C60&gt;150,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -11151,15 +11144,15 @@
         <v>150</v>
       </c>
       <c r="D61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36922</v>
       </c>
       <c r="E61" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45259.246782407405</v>
       </c>
       <c r="F61">
-        <f>IF(C61&gt;150,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11174,15 +11167,15 @@
         <v>152</v>
       </c>
       <c r="D62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37731</v>
       </c>
       <c r="E62" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45259.256145833337</v>
       </c>
       <c r="F62">
-        <f>IF(C62&gt;150,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -11197,15 +11190,15 @@
         <v>149</v>
       </c>
       <c r="D63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37859</v>
       </c>
       <c r="E63" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45259.257627314815</v>
       </c>
       <c r="F63">
-        <f>IF(C63&gt;150,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11220,15 +11213,15 @@
         <v>152</v>
       </c>
       <c r="D64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38639</v>
       </c>
       <c r="E64" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45259.266655092593</v>
       </c>
       <c r="F64">
-        <f>IF(C64&gt;150,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -11243,15 +11236,15 @@
         <v>149</v>
       </c>
       <c r="D65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38766</v>
       </c>
       <c r="E65" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45259.268125000002</v>
       </c>
       <c r="F65">
-        <f>IF(C65&gt;150,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11266,15 +11259,15 @@
         <v>152</v>
       </c>
       <c r="D66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39585</v>
       </c>
       <c r="E66" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45259.277604166666</v>
       </c>
       <c r="F66">
-        <f>IF(C66&gt;150,1,0)</f>
+        <f t="shared" ref="F66:F97" si="4">IF(C66&gt;150,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -11289,15 +11282,15 @@
         <v>149</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D128" si="2">A67</f>
+        <f t="shared" ref="D67:D128" si="5">A67</f>
         <v>39716</v>
       </c>
       <c r="E67" s="4">
-        <f t="shared" ref="E67:E128" si="3">$H$1+D67/3600/24</f>
+        <f t="shared" ref="E67:E128" si="6">$H$1+D67/3600/24</f>
         <v>45259.279120370375</v>
       </c>
       <c r="F67">
-        <f>IF(C67&gt;150,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11312,15 +11305,15 @@
         <v>151</v>
       </c>
       <c r="D68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>40531</v>
       </c>
       <c r="E68" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45259.288553240738</v>
       </c>
       <c r="F68">
-        <f>IF(C68&gt;150,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -11335,15 +11328,15 @@
         <v>150</v>
       </c>
       <c r="D69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>40664</v>
       </c>
       <c r="E69" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45259.290092592593</v>
       </c>
       <c r="F69">
-        <f>IF(C69&gt;150,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11358,15 +11351,15 @@
         <v>152</v>
       </c>
       <c r="D70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>41477</v>
       </c>
       <c r="E70" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45259.299502314818</v>
       </c>
       <c r="F70">
-        <f>IF(C70&gt;150,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -11381,15 +11374,15 @@
         <v>148</v>
       </c>
       <c r="D71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>41605</v>
       </c>
       <c r="E71" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45259.300983796296</v>
       </c>
       <c r="F71">
-        <f>IF(C71&gt;150,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11404,15 +11397,15 @@
         <v>151</v>
       </c>
       <c r="D72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>42422</v>
       </c>
       <c r="E72" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45259.310439814813</v>
       </c>
       <c r="F72">
-        <f>IF(C72&gt;150,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -11427,15 +11420,15 @@
         <v>149</v>
       </c>
       <c r="D73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>42555</v>
       </c>
       <c r="E73" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45259.311979166669</v>
       </c>
       <c r="F73">
-        <f>IF(C73&gt;150,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11450,15 +11443,15 @@
         <v>151</v>
       </c>
       <c r="D74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>43340</v>
       </c>
       <c r="E74" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45259.321064814816</v>
       </c>
       <c r="F74">
-        <f>IF(C74&gt;150,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -11473,15 +11466,15 @@
         <v>150</v>
       </c>
       <c r="D75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>43468</v>
       </c>
       <c r="E75" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45259.322546296295</v>
       </c>
       <c r="F75">
-        <f>IF(C75&gt;150,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11496,15 +11489,15 @@
         <v>151</v>
       </c>
       <c r="D76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>44214</v>
       </c>
       <c r="E76" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45259.331180555557</v>
       </c>
       <c r="F76">
-        <f>IF(C76&gt;150,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -11519,15 +11512,15 @@
         <v>148</v>
       </c>
       <c r="D77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>44346</v>
       </c>
       <c r="E77" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45259.332708333335</v>
       </c>
       <c r="F77">
-        <f>IF(C77&gt;150,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11542,15 +11535,15 @@
         <v>151</v>
       </c>
       <c r="D78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45091</v>
       </c>
       <c r="E78" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45259.341331018521</v>
       </c>
       <c r="F78">
-        <f>IF(C78&gt;150,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -11565,15 +11558,15 @@
         <v>150</v>
       </c>
       <c r="D79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45220</v>
       </c>
       <c r="E79" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45259.342824074076</v>
       </c>
       <c r="F79">
-        <f>IF(C79&gt;150,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11588,15 +11581,15 @@
         <v>152</v>
       </c>
       <c r="D80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45995</v>
       </c>
       <c r="E80" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45259.351793981485</v>
       </c>
       <c r="F80">
-        <f>IF(C80&gt;150,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -11611,15 +11604,15 @@
         <v>144</v>
       </c>
       <c r="D81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>46075</v>
       </c>
       <c r="E81" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45259.352719907409</v>
       </c>
       <c r="F81">
-        <f>IF(C81&gt;150,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11634,15 +11627,15 @@
         <v>255</v>
       </c>
       <c r="D82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>46077</v>
       </c>
       <c r="E82" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45259.352743055555</v>
       </c>
       <c r="F82">
-        <f>IF(C82&gt;150,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -11657,15 +11650,15 @@
         <v>150</v>
       </c>
       <c r="D83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>46125</v>
       </c>
       <c r="E83" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45259.353298611109</v>
       </c>
       <c r="F83">
-        <f>IF(C83&gt;150,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11680,15 +11673,15 @@
         <v>152</v>
       </c>
       <c r="D84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>46924</v>
       </c>
       <c r="E84" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45259.362546296295</v>
       </c>
       <c r="F84">
-        <f>IF(C84&gt;150,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -11703,15 +11696,15 @@
         <v>145</v>
       </c>
       <c r="D85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>47049</v>
       </c>
       <c r="E85" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45259.363993055558</v>
       </c>
       <c r="F85">
-        <f>IF(C85&gt;150,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11726,15 +11719,15 @@
         <v>224</v>
       </c>
       <c r="D86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>47050</v>
       </c>
       <c r="E86" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45259.364004629628</v>
       </c>
       <c r="F86">
-        <f>IF(C86&gt;150,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -11749,15 +11742,15 @@
         <v>148</v>
       </c>
       <c r="D87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>47052</v>
       </c>
       <c r="E87" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45259.364027777781</v>
       </c>
       <c r="F87">
-        <f>IF(C87&gt;150,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11772,15 +11765,15 @@
         <v>151</v>
       </c>
       <c r="D88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>47848</v>
       </c>
       <c r="E88" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45259.373240740744</v>
       </c>
       <c r="F88">
-        <f>IF(C88&gt;150,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -11795,15 +11788,15 @@
         <v>90</v>
       </c>
       <c r="D89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>47868</v>
       </c>
       <c r="E89" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45259.373472222222</v>
       </c>
       <c r="F89">
-        <f>IF(C89&gt;150,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11818,15 +11811,15 @@
         <v>253</v>
       </c>
       <c r="D90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>47869</v>
       </c>
       <c r="E90" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45259.373483796298</v>
       </c>
       <c r="F90">
-        <f>IF(C90&gt;150,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -11841,15 +11834,15 @@
         <v>135</v>
       </c>
       <c r="D91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>47879</v>
       </c>
       <c r="E91" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45259.373599537037</v>
       </c>
       <c r="F91">
-        <f>IF(C91&gt;150,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11864,15 +11857,15 @@
         <v>234</v>
       </c>
       <c r="D92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>47880</v>
       </c>
       <c r="E92" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45259.373611111114</v>
       </c>
       <c r="F92">
-        <f>IF(C92&gt;150,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -11887,15 +11880,15 @@
         <v>146</v>
       </c>
       <c r="D93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>47886</v>
       </c>
       <c r="E93" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45259.37368055556</v>
       </c>
       <c r="F93">
-        <f>IF(C93&gt;150,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11910,15 +11903,15 @@
         <v>210</v>
       </c>
       <c r="D94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>47887</v>
       </c>
       <c r="E94" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45259.373692129629</v>
       </c>
       <c r="F94">
-        <f>IF(C94&gt;150,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -11933,15 +11926,15 @@
         <v>139</v>
       </c>
       <c r="D95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>47966</v>
       </c>
       <c r="E95" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45259.374606481484</v>
       </c>
       <c r="F95">
-        <f>IF(C95&gt;150,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11956,15 +11949,15 @@
         <v>267</v>
       </c>
       <c r="D96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>47967</v>
       </c>
       <c r="E96" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45259.374618055554</v>
       </c>
       <c r="F96">
-        <f>IF(C96&gt;150,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -11979,15 +11972,15 @@
         <v>148</v>
       </c>
       <c r="D97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>47974</v>
       </c>
       <c r="E97" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45259.374699074076</v>
       </c>
       <c r="F97">
-        <f>IF(C97&gt;150,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -12002,15 +11995,15 @@
         <v>153</v>
       </c>
       <c r="D98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>48780</v>
       </c>
       <c r="E98" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45259.384027777778</v>
       </c>
       <c r="F98">
-        <f>IF(C98&gt;150,1,0)</f>
+        <f t="shared" ref="F98:F128" si="7">IF(C98&gt;150,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -12025,15 +12018,15 @@
         <v>137</v>
       </c>
       <c r="D99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>48805</v>
       </c>
       <c r="E99" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45259.384317129632</v>
       </c>
       <c r="F99">
-        <f>IF(C99&gt;150,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -12048,15 +12041,15 @@
         <v>230</v>
       </c>
       <c r="D100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>48806</v>
       </c>
       <c r="E100" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45259.384328703702</v>
       </c>
       <c r="F100">
-        <f>IF(C100&gt;150,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12071,15 +12064,15 @@
         <v>147</v>
       </c>
       <c r="D101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>48841</v>
       </c>
       <c r="E101" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45259.384733796294</v>
       </c>
       <c r="F101">
-        <f>IF(C101&gt;150,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -12094,15 +12087,15 @@
         <v>272</v>
       </c>
       <c r="D102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>48842</v>
       </c>
       <c r="E102" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45259.384745370371</v>
       </c>
       <c r="F102">
-        <f>IF(C102&gt;150,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12117,15 +12110,15 @@
         <v>144</v>
       </c>
       <c r="D103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>48892</v>
       </c>
       <c r="E103" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45259.385324074072</v>
       </c>
       <c r="F103">
-        <f>IF(C103&gt;150,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -12140,15 +12133,15 @@
         <v>258</v>
       </c>
       <c r="D104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>48893</v>
       </c>
       <c r="E104" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45259.385335648149</v>
       </c>
       <c r="F104">
-        <f>IF(C104&gt;150,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12163,15 +12156,15 @@
         <v>148</v>
       </c>
       <c r="D105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>48905</v>
       </c>
       <c r="E105" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45259.385474537041</v>
       </c>
       <c r="F105">
-        <f>IF(C105&gt;150,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -12186,15 +12179,15 @@
         <v>151</v>
       </c>
       <c r="D106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>49712</v>
       </c>
       <c r="E106" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45259.394814814819</v>
       </c>
       <c r="F106">
-        <f>IF(C106&gt;150,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12209,15 +12202,15 @@
         <v>137</v>
       </c>
       <c r="D107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>49720</v>
       </c>
       <c r="E107" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45259.394907407412</v>
       </c>
       <c r="F107">
-        <f>IF(C107&gt;150,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -12232,15 +12225,15 @@
         <v>221</v>
       </c>
       <c r="D108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>49722</v>
       </c>
       <c r="E108" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45259.394930555558</v>
       </c>
       <c r="F108">
-        <f>IF(C108&gt;150,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12255,15 +12248,15 @@
         <v>141</v>
       </c>
       <c r="D109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>49724</v>
       </c>
       <c r="E109" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45259.394953703704</v>
       </c>
       <c r="F109">
-        <f>IF(C109&gt;150,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -12278,15 +12271,15 @@
         <v>218</v>
       </c>
       <c r="D110">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>49726</v>
       </c>
       <c r="E110" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45259.394976851851</v>
       </c>
       <c r="F110">
-        <f>IF(C110&gt;150,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12301,15 +12294,15 @@
         <v>143</v>
       </c>
       <c r="D111">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>49732</v>
       </c>
       <c r="E111" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45259.395046296297</v>
       </c>
       <c r="F111">
-        <f>IF(C111&gt;150,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -12324,15 +12317,15 @@
         <v>224</v>
       </c>
       <c r="D112">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>49734</v>
       </c>
       <c r="E112" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45259.395069444443</v>
       </c>
       <c r="F112">
-        <f>IF(C112&gt;150,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12347,15 +12340,15 @@
         <v>124</v>
       </c>
       <c r="D113">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>49764</v>
       </c>
       <c r="E113" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45259.395416666666</v>
       </c>
       <c r="F113">
-        <f>IF(C113&gt;150,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -12370,15 +12363,15 @@
         <v>234</v>
       </c>
       <c r="D114">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>49765</v>
       </c>
       <c r="E114" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45259.395428240743</v>
       </c>
       <c r="F114">
-        <f>IF(C114&gt;150,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12393,15 +12386,15 @@
         <v>136</v>
       </c>
       <c r="D115">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>49792</v>
       </c>
       <c r="E115" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45259.395740740743</v>
       </c>
       <c r="F115">
-        <f>IF(C115&gt;150,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -12416,15 +12409,15 @@
         <v>223</v>
       </c>
       <c r="D116">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>49793</v>
       </c>
       <c r="E116" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45259.395752314813</v>
       </c>
       <c r="F116">
-        <f>IF(C116&gt;150,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12439,15 +12432,15 @@
         <v>127</v>
       </c>
       <c r="D117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>49819</v>
       </c>
       <c r="E117" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45259.396053240744</v>
       </c>
       <c r="F117">
-        <f>IF(C117&gt;150,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -12462,15 +12455,15 @@
         <v>228</v>
       </c>
       <c r="D118">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>49821</v>
       </c>
       <c r="E118" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45259.39607638889</v>
       </c>
       <c r="F118">
-        <f>IF(C118&gt;150,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12485,15 +12478,15 @@
         <v>127</v>
       </c>
       <c r="D119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>49822</v>
       </c>
       <c r="E119" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45259.396087962967</v>
       </c>
       <c r="F119">
-        <f>IF(C119&gt;150,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -12508,15 +12501,15 @@
         <v>248</v>
       </c>
       <c r="D120">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>49824</v>
       </c>
       <c r="E120" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45259.396111111113</v>
       </c>
       <c r="F120">
-        <f>IF(C120&gt;150,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12531,15 +12524,15 @@
         <v>146</v>
       </c>
       <c r="D121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>49828</v>
       </c>
       <c r="E121" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45259.396157407406</v>
       </c>
       <c r="F121">
-        <f>IF(C121&gt;150,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -12554,15 +12547,15 @@
         <v>215</v>
       </c>
       <c r="D122">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>49829</v>
       </c>
       <c r="E122" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45259.396168981482</v>
       </c>
       <c r="F122">
-        <f>IF(C122&gt;150,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12577,15 +12570,15 @@
         <v>148</v>
       </c>
       <c r="D123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>49839</v>
       </c>
       <c r="E123" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45259.396284722221</v>
       </c>
       <c r="F123">
-        <f>IF(C123&gt;150,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -12600,15 +12593,15 @@
         <v>167</v>
       </c>
       <c r="D124">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>50233</v>
       </c>
       <c r="E124" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45259.40084490741</v>
       </c>
       <c r="F124">
-        <f>IF(C124&gt;150,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12623,15 +12616,15 @@
         <v>5</v>
       </c>
       <c r="D125">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>50234</v>
       </c>
       <c r="E125" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45259.400856481479</v>
       </c>
       <c r="F125">
-        <f>IF(C125&gt;150,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -12646,15 +12639,15 @@
         <v>154</v>
       </c>
       <c r="D126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>50697</v>
       </c>
       <c r="E126" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45259.406215277777</v>
       </c>
       <c r="F126">
-        <f>IF(C126&gt;150,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12669,15 +12662,15 @@
         <v>130</v>
       </c>
       <c r="D127">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>50704</v>
       </c>
       <c r="E127" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45259.4062962963</v>
       </c>
       <c r="F127">
-        <f>IF(C127&gt;150,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -12692,15 +12685,15 @@
         <v>260</v>
       </c>
       <c r="D128">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>50705</v>
       </c>
       <c r="E128" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45259.406307870369</v>
       </c>
       <c r="F128">
-        <f>IF(C128&gt;150,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
